--- a/999.xlsx
+++ b/999.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="群益半導體收益" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="元大美債20年" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -126,6 +127,39 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="15240000" cy="8572500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -630,4 +664,180 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>代號</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>股名</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>收盤價(元)</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>成交量</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>RSI</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>MFI</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>ADL</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Williams[20]</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>布林上限(元)</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>布林下限(元)</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>月均線(元)</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>季均線(元)</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>入場股價[45](元)</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>操作建議</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>00679B.TWO</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>元大美債20年</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2023/7/2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23372000</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>64.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>64.45</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>13249.92</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>39.18%</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>30.93</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>31.49</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>32.05</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>31.69</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>00679B.TWO最近一天收盤價[31.59元]，還在布林通道內。
+建議持續觀望~
+RSI指標為64.43</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
 </file>